--- a/console/Networking/podChExcel/podComponentsMixinsXlsx/pod_checkBox_netSecurity.xlsx
+++ b/console/Networking/podChExcel/podComponentsMixinsXlsx/pod_checkBox_netSecurity.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\1.23\console_1901-24_HO-译文-提交\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -33,9 +28,6 @@
     <t>pod_checkBox_netSecurity_i18nKey_3</t>
   </si>
   <si>
-    <t>Creation Time</t>
-  </si>
-  <si>
     <t>pod_checkBox_netSecurity_i18nKey_4</t>
   </si>
   <si>
@@ -49,9 +41,6 @@
   </si>
   <si>
     <t>pod_checkBox_netSecurity_i18nKey_6</t>
-  </si>
-  <si>
-    <t>'The count of security groups associated with the current Pod has reached cap'</t>
   </si>
   <si>
     <t>pod_checkBox_netSecurity_i18nKey_1</t>
@@ -143,9 +132,6 @@
   </si>
   <si>
     <r>
-      <t>'</t>
-    </r>
-    <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
@@ -181,13 +167,22 @@
       </rPr>
       <t>'</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The count of security groups associated with the current Pod has reached cap'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create at</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,6 +209,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,12 +237,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -582,23 +590,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.375" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="29.375" style="1"/>
+    <col min="1" max="3" width="29.375" style="1"/>
+    <col min="4" max="4" width="29.375" style="3"/>
+    <col min="5" max="16384" width="29.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -609,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -620,50 +630,51 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B5 A6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>